--- a/exports/2024_transactions.xlsx
+++ b/exports/2024_transactions.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="1月" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2月" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="3月" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -624,4 +626,810 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="22.8" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="14.4" customWidth="1" min="9" max="9"/>
+    <col width="39.6" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>创建时间</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>类型</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>支付方式</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>阶段</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>备注（收入）</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>支出详情（支出）</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-04-14 09:35:56</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>订书机设计</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10000.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>收入</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>未结项</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-04-14 09:38:08</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A4纸张</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9000.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>收入</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>未结项</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-04-14 10:19:51</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>钣金套件</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9000.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>收入</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>未结项</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-04-14 10:25:14</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>收纳箱设计</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9000.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>收入</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>已结项</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-04-14 10:40:22</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>充电头设计</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9000.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>收入</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>未结项</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-04-14 10:40:42</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>矿泉水瓶子</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9000.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>收入</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>第二阶段</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>未结项</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-04-14 10:45:36</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>矿泉水瓶子</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>收入</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>第三阶段</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>未结项</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-04-14 14:30:06</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>小青工资</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9300.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>支出</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>未结项</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>小:100.00, 大:200.00, 总额:300.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>总收入</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>60000.00</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>总支出</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>9300.00</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>净收入</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>50700.00</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>总额</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>50700.00元</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="22.8" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="14.4" customWidth="1" min="9" max="9"/>
+    <col width="28.8" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>创建时间</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>类型</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>支付方式</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>阶段</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>备注（收入）</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>支出详情（支出）</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-04-14 09:41:20</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10000.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>收入</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>第二阶段</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>未结项</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-04-14 09:59:07</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>矿泉水瓶设计</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9000.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>收入</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>未结项</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-04-14 11:09:02</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>订书机设计</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12000.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>收入</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>对公账户</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>未结项</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-04-14 11:10:18</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>矿泉水瓶子</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3900.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>支出</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>第二阶段</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>未结项</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>手办:900.00, 总额:900.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>总收入</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>31000.00</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>总支出</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>3900.00</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>净收入</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>27100.00</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>总额</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>27100.00元</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/exports/2024_transactions.xlsx
+++ b/exports/2024_transactions.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="1月" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="2月" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="3月" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -443,7 +442,7 @@
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="22.8" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
@@ -511,17 +510,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-04-13 22:30:56</t>
+          <t>2025-04-14 18:44:13</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>转笔刀设计</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>9000.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -558,7 +557,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>9000.00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -598,7 +597,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>9000.00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -618,7 +617,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>10000.00元</t>
+          <t>9000.00元</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -634,7 +633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,7 +650,7 @@
     <col width="10" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
     <col width="14.4" customWidth="1" min="9" max="9"/>
-    <col width="39.6" customWidth="1" min="10" max="10"/>
+    <col width="19.2" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -712,17 +711,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-04-14 09:35:56</t>
+          <t>2025-04-14 18:32:33</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>订书机设计</t>
+          <t>马克笔套装</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>5000.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -745,609 +744,64 @@
       <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-04-14 09:38:08</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A4纸张</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9000.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>收入</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>微信</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>未结项</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>总收入</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-04-14 10:19:51</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>钣金套件</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9000.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>收入</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>微信</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>未结项</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>总支出</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-04-14 10:25:14</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>收纳箱设计</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>9000.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>收入</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>微信</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>已结项</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>净收入</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-04-14 10:40:22</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>充电头设计</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9000.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>收入</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>微信</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>未结项</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-04-14 10:40:42</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>矿泉水瓶子</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9000.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>收入</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>微信</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>第二阶段</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>未结项</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-04-14 10:45:36</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>矿泉水瓶子</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>收入</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>微信</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>第三阶段</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>未结项</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-04-14 14:30:06</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>小青工资</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>9300.00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>支出</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>微信</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>未结项</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>小:100.00, 大:200.00, 总额:300.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>总收入</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>60000.00</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>总支出</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>9300.00</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>净收入</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>50700.00</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>总额</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>50700.00元</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="22.8" customWidth="1" min="2" max="2"/>
-    <col width="14.4" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="14.4" customWidth="1" min="9" max="9"/>
-    <col width="28.8" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>序号</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>创建时间</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>项目名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>类型</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>支付方式</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>阶段</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>备注（收入）</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>支出详情（支出）</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-04-14 09:41:20</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10000.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>收入</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>微信</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>第二阶段</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>未结项</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-04-14 09:59:07</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>矿泉水瓶设计</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9000.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>收入</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>微信</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>未结项</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-04-14 11:09:02</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>订书机设计</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12000.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>收入</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>对公账户</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>未结项</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-04-14 11:10:18</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>矿泉水瓶子</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3900.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>支出</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>支付宝</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>第二阶段</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>未结项</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>手办:900.00, 总额:900.00</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -1359,75 +813,15 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>总收入</t>
+          <t>总额</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>31000.00</t>
+          <t>5000.00元</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>总支出</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>3900.00</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>净收入</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>27100.00</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>总额</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>27100.00元</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/exports/2024_transactions.xlsx
+++ b/exports/2024_transactions.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="1月" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2月" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -442,7 +441,7 @@
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="22.8" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
@@ -510,17 +509,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-04-14 18:44:13</t>
+          <t>2025-04-15 00:21:16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>转笔刀设计</t>
+          <t>电动车</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9000.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -557,7 +556,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>9000.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -597,7 +596,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>9000.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -617,208 +616,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>9000.00元</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="22.8" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="14.4" customWidth="1" min="9" max="9"/>
-    <col width="19.2" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>序号</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>创建时间</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>项目名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>类型</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>支付方式</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>阶段</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>备注（收入）</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>支出详情（支出）</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-04-14 18:32:33</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>马克笔套装</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>收入</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>微信</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>未结项</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>总收入</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>总支出</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>净收入</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>总额</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>5000.00元</t>
+          <t>10000.00元</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
